--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8967</v>
+        <v>8968</v>
       </c>
       <c r="D15" t="n">
         <v>1806</v>
       </c>
       <c r="E15" t="n">
-        <v>40512006</v>
+        <v>40514189</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -3256,13 +3256,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>97646</v>
+        <v>97647</v>
       </c>
       <c r="D56" t="n">
         <v>18772</v>
       </c>
       <c r="E56" t="n">
-        <v>200355723</v>
+        <v>200357223</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -19066,13 +19066,13 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>18846</v>
+        <v>18847</v>
       </c>
       <c r="D366" t="n">
         <v>3811</v>
       </c>
       <c r="E366" t="n">
-        <v>86458324</v>
+        <v>86523038</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -19882,13 +19882,13 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>25394</v>
+        <v>25395</v>
       </c>
       <c r="D382" t="n">
         <v>5083</v>
       </c>
       <c r="E382" t="n">
-        <v>129223594</v>
+        <v>129225057</v>
       </c>
       <c r="F382" t="inlineStr">
         <is>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>35054</v>
+        <v>35055</v>
       </c>
       <c r="D463" t="n">
         <v>7039</v>
       </c>
       <c r="E463" t="n">
-        <v>160478383</v>
+        <v>160494013</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416823</v>
+        <v>416827</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725487387</v>
+        <v>725495972</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -24982,13 +24982,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4150</v>
+        <v>4154</v>
       </c>
       <c r="D482" t="n">
         <v>521</v>
       </c>
       <c r="E482" t="n">
-        <v>69888184</v>
+        <v>69926240</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292200</v>
+        <v>292208</v>
       </c>
       <c r="D484" t="n">
         <v>42567</v>
       </c>
       <c r="E484" t="n">
-        <v>1772732127</v>
+        <v>1772824371</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230779</v>
+        <v>230783</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1823728544</v>
+        <v>1823755304</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184274</v>
+        <v>184275</v>
       </c>
       <c r="D505" t="n">
         <v>27738</v>
       </c>
       <c r="E505" t="n">
-        <v>332760257</v>
+        <v>332761117</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56111</v>
+        <v>56113</v>
       </c>
       <c r="D520" t="n">
         <v>8770</v>
       </c>
       <c r="E520" t="n">
-        <v>254105698</v>
+        <v>254180222</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27634,13 +27634,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>44043</v>
+        <v>44045</v>
       </c>
       <c r="D534" t="n">
         <v>8566</v>
       </c>
       <c r="E534" t="n">
-        <v>220264122</v>
+        <v>220315737</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25085</v>
+        <v>25086</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92550331</v>
+        <v>92584820</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79090</v>
+        <v>79092</v>
       </c>
       <c r="D918" t="n">
         <v>13383</v>
       </c>
       <c r="E918" t="n">
-        <v>392037725</v>
+        <v>392041864</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -47575,13 +47575,13 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>12203</v>
+        <v>12204</v>
       </c>
       <c r="D925" t="n">
         <v>1959</v>
       </c>
       <c r="E925" t="n">
-        <v>76281330</v>
+        <v>76288270</v>
       </c>
       <c r="F925" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-16/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3868,13 +3868,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="D68" t="n">
         <v>299</v>
       </c>
       <c r="E68" t="n">
-        <v>15915294</v>
+        <v>16009548</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>62518</v>
+        <v>62519</v>
       </c>
       <c r="D108" t="n">
         <v>10955</v>
       </c>
       <c r="E108" t="n">
-        <v>340663237</v>
+        <v>340664380</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6214,13 +6214,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>88477</v>
+        <v>88479</v>
       </c>
       <c r="D114" t="n">
         <v>14314</v>
       </c>
       <c r="E114" t="n">
-        <v>216767689</v>
+        <v>216769579</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -9886,13 +9886,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>20398</v>
+        <v>20399</v>
       </c>
       <c r="D186" t="n">
         <v>4510</v>
       </c>
       <c r="E186" t="n">
-        <v>37267359</v>
+        <v>37274929</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -10855,13 +10855,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>29941</v>
+        <v>29942</v>
       </c>
       <c r="D205" t="n">
         <v>5716</v>
       </c>
       <c r="E205" t="n">
-        <v>156347147</v>
+        <v>156350725</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -14323,13 +14323,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>9011</v>
+        <v>9012</v>
       </c>
       <c r="D273" t="n">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="E273" t="n">
-        <v>43986444</v>
+        <v>43996444</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -19984,13 +19984,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>16792</v>
+        <v>16793</v>
       </c>
       <c r="D384" t="n">
         <v>3259</v>
       </c>
       <c r="E384" t="n">
-        <v>80750829</v>
+        <v>80758794</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71277</v>
+        <v>71278</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110315180</v>
+        <v>110315721</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416827</v>
+        <v>416828</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725495972</v>
+        <v>725501172</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292208</v>
+        <v>292218</v>
       </c>
       <c r="D484" t="n">
         <v>42567</v>
       </c>
       <c r="E484" t="n">
-        <v>1772824371</v>
+        <v>1772898069</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230783</v>
+        <v>230784</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1823755304</v>
+        <v>1823763804</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184275</v>
+        <v>184280</v>
       </c>
       <c r="D505" t="n">
-        <v>27738</v>
+        <v>27739</v>
       </c>
       <c r="E505" t="n">
-        <v>332761117</v>
+        <v>332783436</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71212</v>
+        <v>71213</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>287766959</v>
+        <v>287772436</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26614,13 +26614,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>142811</v>
+        <v>142812</v>
       </c>
       <c r="D514" t="n">
         <v>23613</v>
       </c>
       <c r="E514" t="n">
-        <v>244601927</v>
+        <v>244603015</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56113</v>
+        <v>56114</v>
       </c>
       <c r="D520" t="n">
         <v>8770</v>
       </c>
       <c r="E520" t="n">
-        <v>254180222</v>
+        <v>254184625</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39933</v>
+        <v>39935</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60385247</v>
+        <v>60390275</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12411</v>
+        <v>12412</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>40580089</v>
+        <v>40642757</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -31153,13 +31153,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>32187</v>
+        <v>32191</v>
       </c>
       <c r="D603" t="n">
-        <v>6078</v>
+        <v>6079</v>
       </c>
       <c r="E603" t="n">
-        <v>170477785</v>
+        <v>170496846</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -34009,13 +34009,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>163438</v>
+        <v>163439</v>
       </c>
       <c r="D659" t="n">
         <v>36203</v>
       </c>
       <c r="E659" t="n">
-        <v>278431354</v>
+        <v>278442560</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -34366,13 +34366,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>73210</v>
+        <v>73212</v>
       </c>
       <c r="D666" t="n">
         <v>14361</v>
       </c>
       <c r="E666" t="n">
-        <v>367230138</v>
+        <v>367246535</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -35845,13 +35845,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>11037</v>
+        <v>11038</v>
       </c>
       <c r="D695" t="n">
         <v>2194</v>
       </c>
       <c r="E695" t="n">
-        <v>48904037</v>
+        <v>48914037</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
@@ -46351,13 +46351,13 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>81811</v>
+        <v>81813</v>
       </c>
       <c r="D901" t="n">
         <v>13203</v>
       </c>
       <c r="E901" t="n">
-        <v>443377982</v>
+        <v>443486042</v>
       </c>
       <c r="F901" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>59760</v>
+        <v>59761</v>
       </c>
       <c r="D904" t="n">
         <v>8975</v>
       </c>
       <c r="E904" t="n">
-        <v>334732534</v>
+        <v>334806309</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
